--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC88-EQUIPO RADIO DISTAL  AV TITANIO #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC88-EQUIPO RADIO DISTAL  AV TITANIO #1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149080EA-BE93-432E-8C2A-1730898AF337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="5" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 1'!$A$1:$G$265</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1659,7 +1660,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2013,10 +2014,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2045,16 +2043,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Moneda [0] 2" xfId="5"/>
-    <cellStyle name="Moneda 2" xfId="4"/>
-    <cellStyle name="Moneda 3" xfId="7"/>
-    <cellStyle name="Moneda 3 2" xfId="2"/>
-    <cellStyle name="Moneda 3 2 2" xfId="6"/>
-    <cellStyle name="Moneda 3 2 3" xfId="8"/>
-    <cellStyle name="Moneda 6" xfId="9"/>
-    <cellStyle name="Moneda 7" xfId="10"/>
+    <cellStyle name="Moneda [0] 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Moneda 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Moneda 3 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Moneda 3 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Moneda 6" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Moneda 7" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2414,430 +2412,430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:I252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="68" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="68" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
     <col min="3" max="3" width="108" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="28" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="224" width="11.453125" style="1"/>
-    <col min="225" max="225" width="13.1796875" style="1" customWidth="1"/>
-    <col min="226" max="226" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="224" width="11.42578125" style="1"/>
+    <col min="225" max="225" width="13.140625" style="1" customWidth="1"/>
+    <col min="226" max="226" width="15.140625" style="1" customWidth="1"/>
     <col min="227" max="227" width="42" style="1" customWidth="1"/>
-    <col min="228" max="228" width="11.453125" style="1"/>
-    <col min="229" max="229" width="13.1796875" style="1" customWidth="1"/>
-    <col min="230" max="480" width="11.453125" style="1"/>
-    <col min="481" max="481" width="13.1796875" style="1" customWidth="1"/>
-    <col min="482" max="482" width="15.1796875" style="1" customWidth="1"/>
+    <col min="228" max="228" width="11.42578125" style="1"/>
+    <col min="229" max="229" width="13.140625" style="1" customWidth="1"/>
+    <col min="230" max="480" width="11.42578125" style="1"/>
+    <col min="481" max="481" width="13.140625" style="1" customWidth="1"/>
+    <col min="482" max="482" width="15.140625" style="1" customWidth="1"/>
     <col min="483" max="483" width="42" style="1" customWidth="1"/>
-    <col min="484" max="484" width="11.453125" style="1"/>
-    <col min="485" max="485" width="13.1796875" style="1" customWidth="1"/>
-    <col min="486" max="736" width="11.453125" style="1"/>
-    <col min="737" max="737" width="13.1796875" style="1" customWidth="1"/>
-    <col min="738" max="738" width="15.1796875" style="1" customWidth="1"/>
+    <col min="484" max="484" width="11.42578125" style="1"/>
+    <col min="485" max="485" width="13.140625" style="1" customWidth="1"/>
+    <col min="486" max="736" width="11.42578125" style="1"/>
+    <col min="737" max="737" width="13.140625" style="1" customWidth="1"/>
+    <col min="738" max="738" width="15.140625" style="1" customWidth="1"/>
     <col min="739" max="739" width="42" style="1" customWidth="1"/>
-    <col min="740" max="740" width="11.453125" style="1"/>
-    <col min="741" max="741" width="13.1796875" style="1" customWidth="1"/>
-    <col min="742" max="992" width="11.453125" style="1"/>
-    <col min="993" max="993" width="13.1796875" style="1" customWidth="1"/>
-    <col min="994" max="994" width="15.1796875" style="1" customWidth="1"/>
+    <col min="740" max="740" width="11.42578125" style="1"/>
+    <col min="741" max="741" width="13.140625" style="1" customWidth="1"/>
+    <col min="742" max="992" width="11.42578125" style="1"/>
+    <col min="993" max="993" width="13.140625" style="1" customWidth="1"/>
+    <col min="994" max="994" width="15.140625" style="1" customWidth="1"/>
     <col min="995" max="995" width="42" style="1" customWidth="1"/>
-    <col min="996" max="996" width="11.453125" style="1"/>
-    <col min="997" max="997" width="13.1796875" style="1" customWidth="1"/>
-    <col min="998" max="1248" width="11.453125" style="1"/>
-    <col min="1249" max="1249" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1250" max="1250" width="15.1796875" style="1" customWidth="1"/>
+    <col min="996" max="996" width="11.42578125" style="1"/>
+    <col min="997" max="997" width="13.140625" style="1" customWidth="1"/>
+    <col min="998" max="1248" width="11.42578125" style="1"/>
+    <col min="1249" max="1249" width="13.140625" style="1" customWidth="1"/>
+    <col min="1250" max="1250" width="15.140625" style="1" customWidth="1"/>
     <col min="1251" max="1251" width="42" style="1" customWidth="1"/>
-    <col min="1252" max="1252" width="11.453125" style="1"/>
-    <col min="1253" max="1253" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1254" max="1504" width="11.453125" style="1"/>
-    <col min="1505" max="1505" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1506" max="1506" width="15.1796875" style="1" customWidth="1"/>
+    <col min="1252" max="1252" width="11.42578125" style="1"/>
+    <col min="1253" max="1253" width="13.140625" style="1" customWidth="1"/>
+    <col min="1254" max="1504" width="11.42578125" style="1"/>
+    <col min="1505" max="1505" width="13.140625" style="1" customWidth="1"/>
+    <col min="1506" max="1506" width="15.140625" style="1" customWidth="1"/>
     <col min="1507" max="1507" width="42" style="1" customWidth="1"/>
-    <col min="1508" max="1508" width="11.453125" style="1"/>
-    <col min="1509" max="1509" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1510" max="1760" width="11.453125" style="1"/>
-    <col min="1761" max="1761" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1762" max="1762" width="15.1796875" style="1" customWidth="1"/>
+    <col min="1508" max="1508" width="11.42578125" style="1"/>
+    <col min="1509" max="1509" width="13.140625" style="1" customWidth="1"/>
+    <col min="1510" max="1760" width="11.42578125" style="1"/>
+    <col min="1761" max="1761" width="13.140625" style="1" customWidth="1"/>
+    <col min="1762" max="1762" width="15.140625" style="1" customWidth="1"/>
     <col min="1763" max="1763" width="42" style="1" customWidth="1"/>
-    <col min="1764" max="1764" width="11.453125" style="1"/>
-    <col min="1765" max="1765" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1766" max="2016" width="11.453125" style="1"/>
-    <col min="2017" max="2017" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2018" max="2018" width="15.1796875" style="1" customWidth="1"/>
+    <col min="1764" max="1764" width="11.42578125" style="1"/>
+    <col min="1765" max="1765" width="13.140625" style="1" customWidth="1"/>
+    <col min="1766" max="2016" width="11.42578125" style="1"/>
+    <col min="2017" max="2017" width="13.140625" style="1" customWidth="1"/>
+    <col min="2018" max="2018" width="15.140625" style="1" customWidth="1"/>
     <col min="2019" max="2019" width="42" style="1" customWidth="1"/>
-    <col min="2020" max="2020" width="11.453125" style="1"/>
-    <col min="2021" max="2021" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2022" max="2272" width="11.453125" style="1"/>
-    <col min="2273" max="2273" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2274" max="2274" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2020" max="2020" width="11.42578125" style="1"/>
+    <col min="2021" max="2021" width="13.140625" style="1" customWidth="1"/>
+    <col min="2022" max="2272" width="11.42578125" style="1"/>
+    <col min="2273" max="2273" width="13.140625" style="1" customWidth="1"/>
+    <col min="2274" max="2274" width="15.140625" style="1" customWidth="1"/>
     <col min="2275" max="2275" width="42" style="1" customWidth="1"/>
-    <col min="2276" max="2276" width="11.453125" style="1"/>
-    <col min="2277" max="2277" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2278" max="2528" width="11.453125" style="1"/>
-    <col min="2529" max="2529" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2530" max="2530" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2276" max="2276" width="11.42578125" style="1"/>
+    <col min="2277" max="2277" width="13.140625" style="1" customWidth="1"/>
+    <col min="2278" max="2528" width="11.42578125" style="1"/>
+    <col min="2529" max="2529" width="13.140625" style="1" customWidth="1"/>
+    <col min="2530" max="2530" width="15.140625" style="1" customWidth="1"/>
     <col min="2531" max="2531" width="42" style="1" customWidth="1"/>
-    <col min="2532" max="2532" width="11.453125" style="1"/>
-    <col min="2533" max="2533" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2534" max="2784" width="11.453125" style="1"/>
-    <col min="2785" max="2785" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2786" max="2786" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2532" max="2532" width="11.42578125" style="1"/>
+    <col min="2533" max="2533" width="13.140625" style="1" customWidth="1"/>
+    <col min="2534" max="2784" width="11.42578125" style="1"/>
+    <col min="2785" max="2785" width="13.140625" style="1" customWidth="1"/>
+    <col min="2786" max="2786" width="15.140625" style="1" customWidth="1"/>
     <col min="2787" max="2787" width="42" style="1" customWidth="1"/>
-    <col min="2788" max="2788" width="11.453125" style="1"/>
-    <col min="2789" max="2789" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2790" max="3040" width="11.453125" style="1"/>
-    <col min="3041" max="3041" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3042" max="3042" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2788" max="2788" width="11.42578125" style="1"/>
+    <col min="2789" max="2789" width="13.140625" style="1" customWidth="1"/>
+    <col min="2790" max="3040" width="11.42578125" style="1"/>
+    <col min="3041" max="3041" width="13.140625" style="1" customWidth="1"/>
+    <col min="3042" max="3042" width="15.140625" style="1" customWidth="1"/>
     <col min="3043" max="3043" width="42" style="1" customWidth="1"/>
-    <col min="3044" max="3044" width="11.453125" style="1"/>
-    <col min="3045" max="3045" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3046" max="3296" width="11.453125" style="1"/>
-    <col min="3297" max="3297" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3298" max="3298" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3044" max="3044" width="11.42578125" style="1"/>
+    <col min="3045" max="3045" width="13.140625" style="1" customWidth="1"/>
+    <col min="3046" max="3296" width="11.42578125" style="1"/>
+    <col min="3297" max="3297" width="13.140625" style="1" customWidth="1"/>
+    <col min="3298" max="3298" width="15.140625" style="1" customWidth="1"/>
     <col min="3299" max="3299" width="42" style="1" customWidth="1"/>
-    <col min="3300" max="3300" width="11.453125" style="1"/>
-    <col min="3301" max="3301" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3302" max="3552" width="11.453125" style="1"/>
-    <col min="3553" max="3553" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3554" max="3554" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3300" max="3300" width="11.42578125" style="1"/>
+    <col min="3301" max="3301" width="13.140625" style="1" customWidth="1"/>
+    <col min="3302" max="3552" width="11.42578125" style="1"/>
+    <col min="3553" max="3553" width="13.140625" style="1" customWidth="1"/>
+    <col min="3554" max="3554" width="15.140625" style="1" customWidth="1"/>
     <col min="3555" max="3555" width="42" style="1" customWidth="1"/>
-    <col min="3556" max="3556" width="11.453125" style="1"/>
-    <col min="3557" max="3557" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3558" max="3808" width="11.453125" style="1"/>
-    <col min="3809" max="3809" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3810" max="3810" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3556" max="3556" width="11.42578125" style="1"/>
+    <col min="3557" max="3557" width="13.140625" style="1" customWidth="1"/>
+    <col min="3558" max="3808" width="11.42578125" style="1"/>
+    <col min="3809" max="3809" width="13.140625" style="1" customWidth="1"/>
+    <col min="3810" max="3810" width="15.140625" style="1" customWidth="1"/>
     <col min="3811" max="3811" width="42" style="1" customWidth="1"/>
-    <col min="3812" max="3812" width="11.453125" style="1"/>
-    <col min="3813" max="3813" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3814" max="4064" width="11.453125" style="1"/>
-    <col min="4065" max="4065" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4066" max="4066" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3812" max="3812" width="11.42578125" style="1"/>
+    <col min="3813" max="3813" width="13.140625" style="1" customWidth="1"/>
+    <col min="3814" max="4064" width="11.42578125" style="1"/>
+    <col min="4065" max="4065" width="13.140625" style="1" customWidth="1"/>
+    <col min="4066" max="4066" width="15.140625" style="1" customWidth="1"/>
     <col min="4067" max="4067" width="42" style="1" customWidth="1"/>
-    <col min="4068" max="4068" width="11.453125" style="1"/>
-    <col min="4069" max="4069" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4070" max="4320" width="11.453125" style="1"/>
-    <col min="4321" max="4321" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4322" max="4322" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4068" max="4068" width="11.42578125" style="1"/>
+    <col min="4069" max="4069" width="13.140625" style="1" customWidth="1"/>
+    <col min="4070" max="4320" width="11.42578125" style="1"/>
+    <col min="4321" max="4321" width="13.140625" style="1" customWidth="1"/>
+    <col min="4322" max="4322" width="15.140625" style="1" customWidth="1"/>
     <col min="4323" max="4323" width="42" style="1" customWidth="1"/>
-    <col min="4324" max="4324" width="11.453125" style="1"/>
-    <col min="4325" max="4325" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4326" max="4576" width="11.453125" style="1"/>
-    <col min="4577" max="4577" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4578" max="4578" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4324" max="4324" width="11.42578125" style="1"/>
+    <col min="4325" max="4325" width="13.140625" style="1" customWidth="1"/>
+    <col min="4326" max="4576" width="11.42578125" style="1"/>
+    <col min="4577" max="4577" width="13.140625" style="1" customWidth="1"/>
+    <col min="4578" max="4578" width="15.140625" style="1" customWidth="1"/>
     <col min="4579" max="4579" width="42" style="1" customWidth="1"/>
-    <col min="4580" max="4580" width="11.453125" style="1"/>
-    <col min="4581" max="4581" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4582" max="4832" width="11.453125" style="1"/>
-    <col min="4833" max="4833" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4834" max="4834" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4580" max="4580" width="11.42578125" style="1"/>
+    <col min="4581" max="4581" width="13.140625" style="1" customWidth="1"/>
+    <col min="4582" max="4832" width="11.42578125" style="1"/>
+    <col min="4833" max="4833" width="13.140625" style="1" customWidth="1"/>
+    <col min="4834" max="4834" width="15.140625" style="1" customWidth="1"/>
     <col min="4835" max="4835" width="42" style="1" customWidth="1"/>
-    <col min="4836" max="4836" width="11.453125" style="1"/>
-    <col min="4837" max="4837" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4838" max="5088" width="11.453125" style="1"/>
-    <col min="5089" max="5089" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5090" max="5090" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4836" max="4836" width="11.42578125" style="1"/>
+    <col min="4837" max="4837" width="13.140625" style="1" customWidth="1"/>
+    <col min="4838" max="5088" width="11.42578125" style="1"/>
+    <col min="5089" max="5089" width="13.140625" style="1" customWidth="1"/>
+    <col min="5090" max="5090" width="15.140625" style="1" customWidth="1"/>
     <col min="5091" max="5091" width="42" style="1" customWidth="1"/>
-    <col min="5092" max="5092" width="11.453125" style="1"/>
-    <col min="5093" max="5093" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5094" max="5344" width="11.453125" style="1"/>
-    <col min="5345" max="5345" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5346" max="5346" width="15.1796875" style="1" customWidth="1"/>
+    <col min="5092" max="5092" width="11.42578125" style="1"/>
+    <col min="5093" max="5093" width="13.140625" style="1" customWidth="1"/>
+    <col min="5094" max="5344" width="11.42578125" style="1"/>
+    <col min="5345" max="5345" width="13.140625" style="1" customWidth="1"/>
+    <col min="5346" max="5346" width="15.140625" style="1" customWidth="1"/>
     <col min="5347" max="5347" width="42" style="1" customWidth="1"/>
-    <col min="5348" max="5348" width="11.453125" style="1"/>
-    <col min="5349" max="5349" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5350" max="5600" width="11.453125" style="1"/>
-    <col min="5601" max="5601" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5602" max="5602" width="15.1796875" style="1" customWidth="1"/>
+    <col min="5348" max="5348" width="11.42578125" style="1"/>
+    <col min="5349" max="5349" width="13.140625" style="1" customWidth="1"/>
+    <col min="5350" max="5600" width="11.42578125" style="1"/>
+    <col min="5601" max="5601" width="13.140625" style="1" customWidth="1"/>
+    <col min="5602" max="5602" width="15.140625" style="1" customWidth="1"/>
     <col min="5603" max="5603" width="42" style="1" customWidth="1"/>
-    <col min="5604" max="5604" width="11.453125" style="1"/>
-    <col min="5605" max="5605" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5606" max="5856" width="11.453125" style="1"/>
-    <col min="5857" max="5857" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5858" max="5858" width="15.1796875" style="1" customWidth="1"/>
+    <col min="5604" max="5604" width="11.42578125" style="1"/>
+    <col min="5605" max="5605" width="13.140625" style="1" customWidth="1"/>
+    <col min="5606" max="5856" width="11.42578125" style="1"/>
+    <col min="5857" max="5857" width="13.140625" style="1" customWidth="1"/>
+    <col min="5858" max="5858" width="15.140625" style="1" customWidth="1"/>
     <col min="5859" max="5859" width="42" style="1" customWidth="1"/>
-    <col min="5860" max="5860" width="11.453125" style="1"/>
-    <col min="5861" max="5861" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5862" max="6112" width="11.453125" style="1"/>
-    <col min="6113" max="6113" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6114" max="6114" width="15.1796875" style="1" customWidth="1"/>
+    <col min="5860" max="5860" width="11.42578125" style="1"/>
+    <col min="5861" max="5861" width="13.140625" style="1" customWidth="1"/>
+    <col min="5862" max="6112" width="11.42578125" style="1"/>
+    <col min="6113" max="6113" width="13.140625" style="1" customWidth="1"/>
+    <col min="6114" max="6114" width="15.140625" style="1" customWidth="1"/>
     <col min="6115" max="6115" width="42" style="1" customWidth="1"/>
-    <col min="6116" max="6116" width="11.453125" style="1"/>
-    <col min="6117" max="6117" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6118" max="6368" width="11.453125" style="1"/>
-    <col min="6369" max="6369" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6370" max="6370" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6116" max="6116" width="11.42578125" style="1"/>
+    <col min="6117" max="6117" width="13.140625" style="1" customWidth="1"/>
+    <col min="6118" max="6368" width="11.42578125" style="1"/>
+    <col min="6369" max="6369" width="13.140625" style="1" customWidth="1"/>
+    <col min="6370" max="6370" width="15.140625" style="1" customWidth="1"/>
     <col min="6371" max="6371" width="42" style="1" customWidth="1"/>
-    <col min="6372" max="6372" width="11.453125" style="1"/>
-    <col min="6373" max="6373" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6374" max="6624" width="11.453125" style="1"/>
-    <col min="6625" max="6625" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6626" max="6626" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6372" max="6372" width="11.42578125" style="1"/>
+    <col min="6373" max="6373" width="13.140625" style="1" customWidth="1"/>
+    <col min="6374" max="6624" width="11.42578125" style="1"/>
+    <col min="6625" max="6625" width="13.140625" style="1" customWidth="1"/>
+    <col min="6626" max="6626" width="15.140625" style="1" customWidth="1"/>
     <col min="6627" max="6627" width="42" style="1" customWidth="1"/>
-    <col min="6628" max="6628" width="11.453125" style="1"/>
-    <col min="6629" max="6629" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6630" max="6880" width="11.453125" style="1"/>
-    <col min="6881" max="6881" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6882" max="6882" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6628" max="6628" width="11.42578125" style="1"/>
+    <col min="6629" max="6629" width="13.140625" style="1" customWidth="1"/>
+    <col min="6630" max="6880" width="11.42578125" style="1"/>
+    <col min="6881" max="6881" width="13.140625" style="1" customWidth="1"/>
+    <col min="6882" max="6882" width="15.140625" style="1" customWidth="1"/>
     <col min="6883" max="6883" width="42" style="1" customWidth="1"/>
-    <col min="6884" max="6884" width="11.453125" style="1"/>
-    <col min="6885" max="6885" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6886" max="7136" width="11.453125" style="1"/>
-    <col min="7137" max="7137" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7138" max="7138" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6884" max="6884" width="11.42578125" style="1"/>
+    <col min="6885" max="6885" width="13.140625" style="1" customWidth="1"/>
+    <col min="6886" max="7136" width="11.42578125" style="1"/>
+    <col min="7137" max="7137" width="13.140625" style="1" customWidth="1"/>
+    <col min="7138" max="7138" width="15.140625" style="1" customWidth="1"/>
     <col min="7139" max="7139" width="42" style="1" customWidth="1"/>
-    <col min="7140" max="7140" width="11.453125" style="1"/>
-    <col min="7141" max="7141" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7142" max="7392" width="11.453125" style="1"/>
-    <col min="7393" max="7393" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7394" max="7394" width="15.1796875" style="1" customWidth="1"/>
+    <col min="7140" max="7140" width="11.42578125" style="1"/>
+    <col min="7141" max="7141" width="13.140625" style="1" customWidth="1"/>
+    <col min="7142" max="7392" width="11.42578125" style="1"/>
+    <col min="7393" max="7393" width="13.140625" style="1" customWidth="1"/>
+    <col min="7394" max="7394" width="15.140625" style="1" customWidth="1"/>
     <col min="7395" max="7395" width="42" style="1" customWidth="1"/>
-    <col min="7396" max="7396" width="11.453125" style="1"/>
-    <col min="7397" max="7397" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7398" max="7648" width="11.453125" style="1"/>
-    <col min="7649" max="7649" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7650" max="7650" width="15.1796875" style="1" customWidth="1"/>
+    <col min="7396" max="7396" width="11.42578125" style="1"/>
+    <col min="7397" max="7397" width="13.140625" style="1" customWidth="1"/>
+    <col min="7398" max="7648" width="11.42578125" style="1"/>
+    <col min="7649" max="7649" width="13.140625" style="1" customWidth="1"/>
+    <col min="7650" max="7650" width="15.140625" style="1" customWidth="1"/>
     <col min="7651" max="7651" width="42" style="1" customWidth="1"/>
-    <col min="7652" max="7652" width="11.453125" style="1"/>
-    <col min="7653" max="7653" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7654" max="7904" width="11.453125" style="1"/>
-    <col min="7905" max="7905" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7906" max="7906" width="15.1796875" style="1" customWidth="1"/>
+    <col min="7652" max="7652" width="11.42578125" style="1"/>
+    <col min="7653" max="7653" width="13.140625" style="1" customWidth="1"/>
+    <col min="7654" max="7904" width="11.42578125" style="1"/>
+    <col min="7905" max="7905" width="13.140625" style="1" customWidth="1"/>
+    <col min="7906" max="7906" width="15.140625" style="1" customWidth="1"/>
     <col min="7907" max="7907" width="42" style="1" customWidth="1"/>
-    <col min="7908" max="7908" width="11.453125" style="1"/>
-    <col min="7909" max="7909" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7910" max="8160" width="11.453125" style="1"/>
-    <col min="8161" max="8161" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8162" max="8162" width="15.1796875" style="1" customWidth="1"/>
+    <col min="7908" max="7908" width="11.42578125" style="1"/>
+    <col min="7909" max="7909" width="13.140625" style="1" customWidth="1"/>
+    <col min="7910" max="8160" width="11.42578125" style="1"/>
+    <col min="8161" max="8161" width="13.140625" style="1" customWidth="1"/>
+    <col min="8162" max="8162" width="15.140625" style="1" customWidth="1"/>
     <col min="8163" max="8163" width="42" style="1" customWidth="1"/>
-    <col min="8164" max="8164" width="11.453125" style="1"/>
-    <col min="8165" max="8165" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8166" max="8416" width="11.453125" style="1"/>
-    <col min="8417" max="8417" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8418" max="8418" width="15.1796875" style="1" customWidth="1"/>
+    <col min="8164" max="8164" width="11.42578125" style="1"/>
+    <col min="8165" max="8165" width="13.140625" style="1" customWidth="1"/>
+    <col min="8166" max="8416" width="11.42578125" style="1"/>
+    <col min="8417" max="8417" width="13.140625" style="1" customWidth="1"/>
+    <col min="8418" max="8418" width="15.140625" style="1" customWidth="1"/>
     <col min="8419" max="8419" width="42" style="1" customWidth="1"/>
-    <col min="8420" max="8420" width="11.453125" style="1"/>
-    <col min="8421" max="8421" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8422" max="8672" width="11.453125" style="1"/>
-    <col min="8673" max="8673" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8674" max="8674" width="15.1796875" style="1" customWidth="1"/>
+    <col min="8420" max="8420" width="11.42578125" style="1"/>
+    <col min="8421" max="8421" width="13.140625" style="1" customWidth="1"/>
+    <col min="8422" max="8672" width="11.42578125" style="1"/>
+    <col min="8673" max="8673" width="13.140625" style="1" customWidth="1"/>
+    <col min="8674" max="8674" width="15.140625" style="1" customWidth="1"/>
     <col min="8675" max="8675" width="42" style="1" customWidth="1"/>
-    <col min="8676" max="8676" width="11.453125" style="1"/>
-    <col min="8677" max="8677" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8678" max="8928" width="11.453125" style="1"/>
-    <col min="8929" max="8929" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8930" max="8930" width="15.1796875" style="1" customWidth="1"/>
+    <col min="8676" max="8676" width="11.42578125" style="1"/>
+    <col min="8677" max="8677" width="13.140625" style="1" customWidth="1"/>
+    <col min="8678" max="8928" width="11.42578125" style="1"/>
+    <col min="8929" max="8929" width="13.140625" style="1" customWidth="1"/>
+    <col min="8930" max="8930" width="15.140625" style="1" customWidth="1"/>
     <col min="8931" max="8931" width="42" style="1" customWidth="1"/>
-    <col min="8932" max="8932" width="11.453125" style="1"/>
-    <col min="8933" max="8933" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8934" max="9184" width="11.453125" style="1"/>
-    <col min="9185" max="9185" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9186" max="9186" width="15.1796875" style="1" customWidth="1"/>
+    <col min="8932" max="8932" width="11.42578125" style="1"/>
+    <col min="8933" max="8933" width="13.140625" style="1" customWidth="1"/>
+    <col min="8934" max="9184" width="11.42578125" style="1"/>
+    <col min="9185" max="9185" width="13.140625" style="1" customWidth="1"/>
+    <col min="9186" max="9186" width="15.140625" style="1" customWidth="1"/>
     <col min="9187" max="9187" width="42" style="1" customWidth="1"/>
-    <col min="9188" max="9188" width="11.453125" style="1"/>
-    <col min="9189" max="9189" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9190" max="9440" width="11.453125" style="1"/>
-    <col min="9441" max="9441" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9442" max="9442" width="15.1796875" style="1" customWidth="1"/>
+    <col min="9188" max="9188" width="11.42578125" style="1"/>
+    <col min="9189" max="9189" width="13.140625" style="1" customWidth="1"/>
+    <col min="9190" max="9440" width="11.42578125" style="1"/>
+    <col min="9441" max="9441" width="13.140625" style="1" customWidth="1"/>
+    <col min="9442" max="9442" width="15.140625" style="1" customWidth="1"/>
     <col min="9443" max="9443" width="42" style="1" customWidth="1"/>
-    <col min="9444" max="9444" width="11.453125" style="1"/>
-    <col min="9445" max="9445" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9446" max="9696" width="11.453125" style="1"/>
-    <col min="9697" max="9697" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9698" max="9698" width="15.1796875" style="1" customWidth="1"/>
+    <col min="9444" max="9444" width="11.42578125" style="1"/>
+    <col min="9445" max="9445" width="13.140625" style="1" customWidth="1"/>
+    <col min="9446" max="9696" width="11.42578125" style="1"/>
+    <col min="9697" max="9697" width="13.140625" style="1" customWidth="1"/>
+    <col min="9698" max="9698" width="15.140625" style="1" customWidth="1"/>
     <col min="9699" max="9699" width="42" style="1" customWidth="1"/>
-    <col min="9700" max="9700" width="11.453125" style="1"/>
-    <col min="9701" max="9701" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9702" max="9952" width="11.453125" style="1"/>
-    <col min="9953" max="9953" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9954" max="9954" width="15.1796875" style="1" customWidth="1"/>
+    <col min="9700" max="9700" width="11.42578125" style="1"/>
+    <col min="9701" max="9701" width="13.140625" style="1" customWidth="1"/>
+    <col min="9702" max="9952" width="11.42578125" style="1"/>
+    <col min="9953" max="9953" width="13.140625" style="1" customWidth="1"/>
+    <col min="9954" max="9954" width="15.140625" style="1" customWidth="1"/>
     <col min="9955" max="9955" width="42" style="1" customWidth="1"/>
-    <col min="9956" max="9956" width="11.453125" style="1"/>
-    <col min="9957" max="9957" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9958" max="10208" width="11.453125" style="1"/>
-    <col min="10209" max="10209" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10210" max="10210" width="15.1796875" style="1" customWidth="1"/>
+    <col min="9956" max="9956" width="11.42578125" style="1"/>
+    <col min="9957" max="9957" width="13.140625" style="1" customWidth="1"/>
+    <col min="9958" max="10208" width="11.42578125" style="1"/>
+    <col min="10209" max="10209" width="13.140625" style="1" customWidth="1"/>
+    <col min="10210" max="10210" width="15.140625" style="1" customWidth="1"/>
     <col min="10211" max="10211" width="42" style="1" customWidth="1"/>
-    <col min="10212" max="10212" width="11.453125" style="1"/>
-    <col min="10213" max="10213" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10214" max="10464" width="11.453125" style="1"/>
-    <col min="10465" max="10465" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10466" max="10466" width="15.1796875" style="1" customWidth="1"/>
+    <col min="10212" max="10212" width="11.42578125" style="1"/>
+    <col min="10213" max="10213" width="13.140625" style="1" customWidth="1"/>
+    <col min="10214" max="10464" width="11.42578125" style="1"/>
+    <col min="10465" max="10465" width="13.140625" style="1" customWidth="1"/>
+    <col min="10466" max="10466" width="15.140625" style="1" customWidth="1"/>
     <col min="10467" max="10467" width="42" style="1" customWidth="1"/>
-    <col min="10468" max="10468" width="11.453125" style="1"/>
-    <col min="10469" max="10469" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10470" max="10720" width="11.453125" style="1"/>
-    <col min="10721" max="10721" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10722" max="10722" width="15.1796875" style="1" customWidth="1"/>
+    <col min="10468" max="10468" width="11.42578125" style="1"/>
+    <col min="10469" max="10469" width="13.140625" style="1" customWidth="1"/>
+    <col min="10470" max="10720" width="11.42578125" style="1"/>
+    <col min="10721" max="10721" width="13.140625" style="1" customWidth="1"/>
+    <col min="10722" max="10722" width="15.140625" style="1" customWidth="1"/>
     <col min="10723" max="10723" width="42" style="1" customWidth="1"/>
-    <col min="10724" max="10724" width="11.453125" style="1"/>
-    <col min="10725" max="10725" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10726" max="10976" width="11.453125" style="1"/>
-    <col min="10977" max="10977" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10978" max="10978" width="15.1796875" style="1" customWidth="1"/>
+    <col min="10724" max="10724" width="11.42578125" style="1"/>
+    <col min="10725" max="10725" width="13.140625" style="1" customWidth="1"/>
+    <col min="10726" max="10976" width="11.42578125" style="1"/>
+    <col min="10977" max="10977" width="13.140625" style="1" customWidth="1"/>
+    <col min="10978" max="10978" width="15.140625" style="1" customWidth="1"/>
     <col min="10979" max="10979" width="42" style="1" customWidth="1"/>
-    <col min="10980" max="10980" width="11.453125" style="1"/>
-    <col min="10981" max="10981" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10982" max="11232" width="11.453125" style="1"/>
-    <col min="11233" max="11233" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11234" max="11234" width="15.1796875" style="1" customWidth="1"/>
+    <col min="10980" max="10980" width="11.42578125" style="1"/>
+    <col min="10981" max="10981" width="13.140625" style="1" customWidth="1"/>
+    <col min="10982" max="11232" width="11.42578125" style="1"/>
+    <col min="11233" max="11233" width="13.140625" style="1" customWidth="1"/>
+    <col min="11234" max="11234" width="15.140625" style="1" customWidth="1"/>
     <col min="11235" max="11235" width="42" style="1" customWidth="1"/>
-    <col min="11236" max="11236" width="11.453125" style="1"/>
-    <col min="11237" max="11237" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11238" max="11488" width="11.453125" style="1"/>
-    <col min="11489" max="11489" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11490" max="11490" width="15.1796875" style="1" customWidth="1"/>
+    <col min="11236" max="11236" width="11.42578125" style="1"/>
+    <col min="11237" max="11237" width="13.140625" style="1" customWidth="1"/>
+    <col min="11238" max="11488" width="11.42578125" style="1"/>
+    <col min="11489" max="11489" width="13.140625" style="1" customWidth="1"/>
+    <col min="11490" max="11490" width="15.140625" style="1" customWidth="1"/>
     <col min="11491" max="11491" width="42" style="1" customWidth="1"/>
-    <col min="11492" max="11492" width="11.453125" style="1"/>
-    <col min="11493" max="11493" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11494" max="11744" width="11.453125" style="1"/>
-    <col min="11745" max="11745" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11746" max="11746" width="15.1796875" style="1" customWidth="1"/>
+    <col min="11492" max="11492" width="11.42578125" style="1"/>
+    <col min="11493" max="11493" width="13.140625" style="1" customWidth="1"/>
+    <col min="11494" max="11744" width="11.42578125" style="1"/>
+    <col min="11745" max="11745" width="13.140625" style="1" customWidth="1"/>
+    <col min="11746" max="11746" width="15.140625" style="1" customWidth="1"/>
     <col min="11747" max="11747" width="42" style="1" customWidth="1"/>
-    <col min="11748" max="11748" width="11.453125" style="1"/>
-    <col min="11749" max="11749" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11750" max="12000" width="11.453125" style="1"/>
-    <col min="12001" max="12001" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12002" max="12002" width="15.1796875" style="1" customWidth="1"/>
+    <col min="11748" max="11748" width="11.42578125" style="1"/>
+    <col min="11749" max="11749" width="13.140625" style="1" customWidth="1"/>
+    <col min="11750" max="12000" width="11.42578125" style="1"/>
+    <col min="12001" max="12001" width="13.140625" style="1" customWidth="1"/>
+    <col min="12002" max="12002" width="15.140625" style="1" customWidth="1"/>
     <col min="12003" max="12003" width="42" style="1" customWidth="1"/>
-    <col min="12004" max="12004" width="11.453125" style="1"/>
-    <col min="12005" max="12005" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12006" max="12256" width="11.453125" style="1"/>
-    <col min="12257" max="12257" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12258" max="12258" width="15.1796875" style="1" customWidth="1"/>
+    <col min="12004" max="12004" width="11.42578125" style="1"/>
+    <col min="12005" max="12005" width="13.140625" style="1" customWidth="1"/>
+    <col min="12006" max="12256" width="11.42578125" style="1"/>
+    <col min="12257" max="12257" width="13.140625" style="1" customWidth="1"/>
+    <col min="12258" max="12258" width="15.140625" style="1" customWidth="1"/>
     <col min="12259" max="12259" width="42" style="1" customWidth="1"/>
-    <col min="12260" max="12260" width="11.453125" style="1"/>
-    <col min="12261" max="12261" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12262" max="12512" width="11.453125" style="1"/>
-    <col min="12513" max="12513" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12514" max="12514" width="15.1796875" style="1" customWidth="1"/>
+    <col min="12260" max="12260" width="11.42578125" style="1"/>
+    <col min="12261" max="12261" width="13.140625" style="1" customWidth="1"/>
+    <col min="12262" max="12512" width="11.42578125" style="1"/>
+    <col min="12513" max="12513" width="13.140625" style="1" customWidth="1"/>
+    <col min="12514" max="12514" width="15.140625" style="1" customWidth="1"/>
     <col min="12515" max="12515" width="42" style="1" customWidth="1"/>
-    <col min="12516" max="12516" width="11.453125" style="1"/>
-    <col min="12517" max="12517" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12518" max="12768" width="11.453125" style="1"/>
-    <col min="12769" max="12769" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12770" max="12770" width="15.1796875" style="1" customWidth="1"/>
+    <col min="12516" max="12516" width="11.42578125" style="1"/>
+    <col min="12517" max="12517" width="13.140625" style="1" customWidth="1"/>
+    <col min="12518" max="12768" width="11.42578125" style="1"/>
+    <col min="12769" max="12769" width="13.140625" style="1" customWidth="1"/>
+    <col min="12770" max="12770" width="15.140625" style="1" customWidth="1"/>
     <col min="12771" max="12771" width="42" style="1" customWidth="1"/>
-    <col min="12772" max="12772" width="11.453125" style="1"/>
-    <col min="12773" max="12773" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12774" max="13024" width="11.453125" style="1"/>
-    <col min="13025" max="13025" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13026" max="13026" width="15.1796875" style="1" customWidth="1"/>
+    <col min="12772" max="12772" width="11.42578125" style="1"/>
+    <col min="12773" max="12773" width="13.140625" style="1" customWidth="1"/>
+    <col min="12774" max="13024" width="11.42578125" style="1"/>
+    <col min="13025" max="13025" width="13.140625" style="1" customWidth="1"/>
+    <col min="13026" max="13026" width="15.140625" style="1" customWidth="1"/>
     <col min="13027" max="13027" width="42" style="1" customWidth="1"/>
-    <col min="13028" max="13028" width="11.453125" style="1"/>
-    <col min="13029" max="13029" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13030" max="13280" width="11.453125" style="1"/>
-    <col min="13281" max="13281" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13282" max="13282" width="15.1796875" style="1" customWidth="1"/>
+    <col min="13028" max="13028" width="11.42578125" style="1"/>
+    <col min="13029" max="13029" width="13.140625" style="1" customWidth="1"/>
+    <col min="13030" max="13280" width="11.42578125" style="1"/>
+    <col min="13281" max="13281" width="13.140625" style="1" customWidth="1"/>
+    <col min="13282" max="13282" width="15.140625" style="1" customWidth="1"/>
     <col min="13283" max="13283" width="42" style="1" customWidth="1"/>
-    <col min="13284" max="13284" width="11.453125" style="1"/>
-    <col min="13285" max="13285" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13286" max="13536" width="11.453125" style="1"/>
-    <col min="13537" max="13537" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13538" max="13538" width="15.1796875" style="1" customWidth="1"/>
+    <col min="13284" max="13284" width="11.42578125" style="1"/>
+    <col min="13285" max="13285" width="13.140625" style="1" customWidth="1"/>
+    <col min="13286" max="13536" width="11.42578125" style="1"/>
+    <col min="13537" max="13537" width="13.140625" style="1" customWidth="1"/>
+    <col min="13538" max="13538" width="15.140625" style="1" customWidth="1"/>
     <col min="13539" max="13539" width="42" style="1" customWidth="1"/>
-    <col min="13540" max="13540" width="11.453125" style="1"/>
-    <col min="13541" max="13541" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13542" max="13792" width="11.453125" style="1"/>
-    <col min="13793" max="13793" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13794" max="13794" width="15.1796875" style="1" customWidth="1"/>
+    <col min="13540" max="13540" width="11.42578125" style="1"/>
+    <col min="13541" max="13541" width="13.140625" style="1" customWidth="1"/>
+    <col min="13542" max="13792" width="11.42578125" style="1"/>
+    <col min="13793" max="13793" width="13.140625" style="1" customWidth="1"/>
+    <col min="13794" max="13794" width="15.140625" style="1" customWidth="1"/>
     <col min="13795" max="13795" width="42" style="1" customWidth="1"/>
-    <col min="13796" max="13796" width="11.453125" style="1"/>
-    <col min="13797" max="13797" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13798" max="14048" width="11.453125" style="1"/>
-    <col min="14049" max="14049" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14050" max="14050" width="15.1796875" style="1" customWidth="1"/>
+    <col min="13796" max="13796" width="11.42578125" style="1"/>
+    <col min="13797" max="13797" width="13.140625" style="1" customWidth="1"/>
+    <col min="13798" max="14048" width="11.42578125" style="1"/>
+    <col min="14049" max="14049" width="13.140625" style="1" customWidth="1"/>
+    <col min="14050" max="14050" width="15.140625" style="1" customWidth="1"/>
     <col min="14051" max="14051" width="42" style="1" customWidth="1"/>
-    <col min="14052" max="14052" width="11.453125" style="1"/>
-    <col min="14053" max="14053" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14054" max="14304" width="11.453125" style="1"/>
-    <col min="14305" max="14305" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14306" max="14306" width="15.1796875" style="1" customWidth="1"/>
+    <col min="14052" max="14052" width="11.42578125" style="1"/>
+    <col min="14053" max="14053" width="13.140625" style="1" customWidth="1"/>
+    <col min="14054" max="14304" width="11.42578125" style="1"/>
+    <col min="14305" max="14305" width="13.140625" style="1" customWidth="1"/>
+    <col min="14306" max="14306" width="15.140625" style="1" customWidth="1"/>
     <col min="14307" max="14307" width="42" style="1" customWidth="1"/>
-    <col min="14308" max="14308" width="11.453125" style="1"/>
-    <col min="14309" max="14309" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14310" max="14560" width="11.453125" style="1"/>
-    <col min="14561" max="14561" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14562" max="14562" width="15.1796875" style="1" customWidth="1"/>
+    <col min="14308" max="14308" width="11.42578125" style="1"/>
+    <col min="14309" max="14309" width="13.140625" style="1" customWidth="1"/>
+    <col min="14310" max="14560" width="11.42578125" style="1"/>
+    <col min="14561" max="14561" width="13.140625" style="1" customWidth="1"/>
+    <col min="14562" max="14562" width="15.140625" style="1" customWidth="1"/>
     <col min="14563" max="14563" width="42" style="1" customWidth="1"/>
-    <col min="14564" max="14564" width="11.453125" style="1"/>
-    <col min="14565" max="14565" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14566" max="14816" width="11.453125" style="1"/>
-    <col min="14817" max="14817" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14818" max="14818" width="15.1796875" style="1" customWidth="1"/>
+    <col min="14564" max="14564" width="11.42578125" style="1"/>
+    <col min="14565" max="14565" width="13.140625" style="1" customWidth="1"/>
+    <col min="14566" max="14816" width="11.42578125" style="1"/>
+    <col min="14817" max="14817" width="13.140625" style="1" customWidth="1"/>
+    <col min="14818" max="14818" width="15.140625" style="1" customWidth="1"/>
     <col min="14819" max="14819" width="42" style="1" customWidth="1"/>
-    <col min="14820" max="14820" width="11.453125" style="1"/>
-    <col min="14821" max="14821" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14822" max="15072" width="11.453125" style="1"/>
-    <col min="15073" max="15073" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15074" max="15074" width="15.1796875" style="1" customWidth="1"/>
+    <col min="14820" max="14820" width="11.42578125" style="1"/>
+    <col min="14821" max="14821" width="13.140625" style="1" customWidth="1"/>
+    <col min="14822" max="15072" width="11.42578125" style="1"/>
+    <col min="15073" max="15073" width="13.140625" style="1" customWidth="1"/>
+    <col min="15074" max="15074" width="15.140625" style="1" customWidth="1"/>
     <col min="15075" max="15075" width="42" style="1" customWidth="1"/>
-    <col min="15076" max="15076" width="11.453125" style="1"/>
-    <col min="15077" max="15077" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15078" max="15328" width="11.453125" style="1"/>
-    <col min="15329" max="15329" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15330" max="15330" width="15.1796875" style="1" customWidth="1"/>
+    <col min="15076" max="15076" width="11.42578125" style="1"/>
+    <col min="15077" max="15077" width="13.140625" style="1" customWidth="1"/>
+    <col min="15078" max="15328" width="11.42578125" style="1"/>
+    <col min="15329" max="15329" width="13.140625" style="1" customWidth="1"/>
+    <col min="15330" max="15330" width="15.140625" style="1" customWidth="1"/>
     <col min="15331" max="15331" width="42" style="1" customWidth="1"/>
-    <col min="15332" max="15332" width="11.453125" style="1"/>
-    <col min="15333" max="15333" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15334" max="15584" width="11.453125" style="1"/>
-    <col min="15585" max="15585" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15586" max="15586" width="15.1796875" style="1" customWidth="1"/>
+    <col min="15332" max="15332" width="11.42578125" style="1"/>
+    <col min="15333" max="15333" width="13.140625" style="1" customWidth="1"/>
+    <col min="15334" max="15584" width="11.42578125" style="1"/>
+    <col min="15585" max="15585" width="13.140625" style="1" customWidth="1"/>
+    <col min="15586" max="15586" width="15.140625" style="1" customWidth="1"/>
     <col min="15587" max="15587" width="42" style="1" customWidth="1"/>
-    <col min="15588" max="15588" width="11.453125" style="1"/>
-    <col min="15589" max="15589" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15590" max="15840" width="11.453125" style="1"/>
-    <col min="15841" max="15841" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15842" max="15842" width="15.1796875" style="1" customWidth="1"/>
+    <col min="15588" max="15588" width="11.42578125" style="1"/>
+    <col min="15589" max="15589" width="13.140625" style="1" customWidth="1"/>
+    <col min="15590" max="15840" width="11.42578125" style="1"/>
+    <col min="15841" max="15841" width="13.140625" style="1" customWidth="1"/>
+    <col min="15842" max="15842" width="15.140625" style="1" customWidth="1"/>
     <col min="15843" max="15843" width="42" style="1" customWidth="1"/>
-    <col min="15844" max="15844" width="11.453125" style="1"/>
-    <col min="15845" max="15845" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15846" max="16096" width="11.453125" style="1"/>
-    <col min="16097" max="16097" width="13.1796875" style="1" customWidth="1"/>
-    <col min="16098" max="16098" width="15.1796875" style="1" customWidth="1"/>
+    <col min="15844" max="15844" width="11.42578125" style="1"/>
+    <col min="15845" max="15845" width="13.140625" style="1" customWidth="1"/>
+    <col min="15846" max="16096" width="11.42578125" style="1"/>
+    <col min="16097" max="16097" width="13.140625" style="1" customWidth="1"/>
+    <col min="16098" max="16098" width="15.140625" style="1" customWidth="1"/>
     <col min="16099" max="16099" width="42" style="1" customWidth="1"/>
-    <col min="16100" max="16100" width="11.453125" style="1"/>
-    <col min="16101" max="16101" width="13.1796875" style="1" customWidth="1"/>
-    <col min="16102" max="16384" width="11.453125" style="1"/>
+    <col min="16100" max="16100" width="11.42578125" style="1"/>
+    <col min="16101" max="16101" width="13.140625" style="1" customWidth="1"/>
+    <col min="16102" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
       <c r="B2" s="88"/>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="129" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="130"/>
-    </row>
-    <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="129"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
       <c r="B3" s="89"/>
-      <c r="C3" s="129"/>
+      <c r="C3" s="128"/>
       <c r="D3" s="55" t="s">
         <v>220</v>
       </c>
       <c r="E3" s="55"/>
     </row>
-    <row r="4" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79"/>
       <c r="B4" s="89"/>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="130" t="s">
         <v>221</v>
       </c>
       <c r="D4" s="55" t="s">
@@ -2847,10 +2845,10 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="80"/>
       <c r="B5" s="90"/>
-      <c r="C5" s="131"/>
+      <c r="C5" s="130"/>
       <c r="D5" s="55" t="s">
         <v>251</v>
       </c>
@@ -2858,7 +2856,7 @@
         <v>46075</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="45" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="45" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
       <c r="B6" s="91"/>
       <c r="C6" s="56"/>
@@ -2867,7 +2865,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" s="45" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="45" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>20</v>
       </c>
@@ -2884,7 +2882,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
     </row>
-    <row r="8" spans="1:7" s="45" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="45" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -2893,7 +2891,7 @@
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
     </row>
-    <row r="9" spans="1:7" s="45" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="45" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>22</v>
       </c>
@@ -2908,7 +2906,7 @@
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
     </row>
-    <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -2917,11 +2915,11 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="127" t="s">
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="126" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="107" t="s">
         <v>253</v>
       </c>
@@ -2934,7 +2932,7 @@
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
     </row>
-    <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="81"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -2942,7 +2940,7 @@
       <c r="E12" s="59"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="57" t="s">
         <v>24</v>
       </c>
@@ -2958,7 +2956,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -2966,7 +2964,7 @@
       <c r="E14" s="59"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="57" t="s">
         <v>26</v>
       </c>
@@ -2982,7 +2980,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -2990,7 +2988,7 @@
       <c r="E16" s="59"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
@@ -3002,7 +3000,7 @@
       <c r="E17" s="66"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="81"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -3010,7 +3008,7 @@
       <c r="E18" s="59"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>29</v>
       </c>
@@ -3023,7 +3021,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -3032,7 +3030,7 @@
       <c r="F20" s="47"/>
       <c r="G20" s="46"/>
     </row>
-    <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>225</v>
       </c>
@@ -3043,7 +3041,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
       <c r="B22" s="92"/>
       <c r="C22" s="95"/>
@@ -3052,7 +3050,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="82" t="s">
         <v>30</v>
       </c>
@@ -3075,7 +3073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="120" t="s">
         <v>52</v>
       </c>
@@ -3097,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="120" t="s">
         <v>52</v>
       </c>
@@ -3119,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="120" t="s">
         <v>284</v>
       </c>
@@ -3141,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="120" t="s">
         <v>74</v>
       </c>
@@ -3163,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="120" t="s">
         <v>74</v>
       </c>
@@ -3185,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="120" t="s">
         <v>287</v>
       </c>
@@ -3207,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120" t="s">
         <v>75</v>
       </c>
@@ -3229,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="120" t="s">
         <v>75</v>
       </c>
@@ -3251,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="120" t="s">
         <v>76</v>
       </c>
@@ -3273,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="120" t="s">
         <v>339</v>
       </c>
@@ -3287,7 +3285,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="120" t="s">
         <v>77</v>
       </c>
@@ -3309,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="120" t="s">
         <v>290</v>
       </c>
@@ -3331,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="120" t="s">
         <v>77</v>
       </c>
@@ -3353,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="120" t="s">
         <v>78</v>
       </c>
@@ -3375,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="120" t="s">
         <v>78</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="120" t="s">
         <v>294</v>
       </c>
@@ -3419,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="120" t="s">
         <v>79</v>
       </c>
@@ -3441,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="120" t="s">
         <v>79</v>
       </c>
@@ -3463,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="120" t="s">
         <v>80</v>
       </c>
@@ -3485,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="120" t="s">
         <v>339</v>
       </c>
@@ -3499,7 +3497,7 @@
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="120" t="s">
         <v>260</v>
       </c>
@@ -3521,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="120" t="s">
         <v>260</v>
       </c>
@@ -3543,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="120" t="s">
         <v>261</v>
       </c>
@@ -3565,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="120" t="s">
         <v>261</v>
       </c>
@@ -3587,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="120" t="s">
         <v>262</v>
       </c>
@@ -3609,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="120" t="s">
         <v>262</v>
       </c>
@@ -3631,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="120" t="s">
         <v>263</v>
       </c>
@@ -3653,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="120" t="s">
         <v>263</v>
       </c>
@@ -3675,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="120" t="s">
         <v>264</v>
       </c>
@@ -3697,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="120" t="s">
         <v>265</v>
       </c>
@@ -3719,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="120" t="s">
         <v>339</v>
       </c>
@@ -3733,7 +3731,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="120" t="s">
         <v>266</v>
       </c>
@@ -3755,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="120" t="s">
         <v>266</v>
       </c>
@@ -3777,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="120" t="s">
         <v>267</v>
       </c>
@@ -3799,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="120" t="s">
         <v>267</v>
       </c>
@@ -3821,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="120" t="s">
         <v>268</v>
       </c>
@@ -3843,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="120" t="s">
         <v>268</v>
       </c>
@@ -3865,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="120" t="s">
         <v>269</v>
       </c>
@@ -3887,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="120" t="s">
         <v>269</v>
       </c>
@@ -3909,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="120" t="s">
         <v>270</v>
       </c>
@@ -3931,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="120" t="s">
         <v>271</v>
       </c>
@@ -3953,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="120" t="s">
         <v>339</v>
       </c>
@@ -3967,7 +3965,7 @@
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="120" t="s">
         <v>82</v>
       </c>
@@ -3989,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="120" t="s">
         <v>83</v>
       </c>
@@ -4011,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="120" t="s">
         <v>1</v>
       </c>
@@ -4033,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="120" t="s">
         <v>85</v>
       </c>
@@ -4055,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="120" t="s">
         <v>339</v>
       </c>
@@ -4069,7 +4067,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="120" t="s">
         <v>81</v>
       </c>
@@ -4089,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="120" t="s">
         <v>183</v>
       </c>
@@ -4111,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="120" t="s">
         <v>2</v>
       </c>
@@ -4133,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="120" t="s">
         <v>84</v>
       </c>
@@ -4155,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="120" t="s">
         <v>339</v>
       </c>
@@ -4169,7 +4167,7 @@
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="120" t="s">
         <v>185</v>
       </c>
@@ -4191,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="120" t="s">
         <v>87</v>
       </c>
@@ -4213,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="120" t="s">
         <v>89</v>
       </c>
@@ -4235,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="120" t="s">
         <v>339</v>
       </c>
@@ -4249,7 +4247,7 @@
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="120" t="s">
         <v>90</v>
       </c>
@@ -4271,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="120" t="s">
         <v>91</v>
       </c>
@@ -4293,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="120" t="s">
         <v>93</v>
       </c>
@@ -4315,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="120" t="s">
         <v>339</v>
       </c>
@@ -4329,7 +4327,7 @@
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="120" t="s">
         <v>94</v>
       </c>
@@ -4351,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="120" t="s">
         <v>338</v>
       </c>
@@ -4373,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="120" t="s">
         <v>339</v>
       </c>
@@ -4387,7 +4385,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="120" t="s">
         <v>96</v>
       </c>
@@ -4409,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="120" t="s">
         <v>337</v>
       </c>
@@ -4431,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="120" t="s">
         <v>339</v>
       </c>
@@ -4445,7 +4443,7 @@
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
     </row>
-    <row r="90" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="120" t="s">
         <v>64</v>
       </c>
@@ -4467,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="120" t="s">
         <v>66</v>
       </c>
@@ -4489,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="120" t="s">
         <v>68</v>
       </c>
@@ -4511,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="120" t="s">
         <v>339</v>
       </c>
@@ -4525,7 +4523,7 @@
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
     </row>
-    <row r="94" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="120" t="s">
         <v>69</v>
       </c>
@@ -4547,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="120" t="s">
         <v>71</v>
       </c>
@@ -4569,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="120" t="s">
         <v>73</v>
       </c>
@@ -4591,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="120" t="s">
         <v>339</v>
       </c>
@@ -4605,7 +4603,7 @@
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
     </row>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="120" t="s">
         <v>226</v>
       </c>
@@ -4627,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="120" t="s">
         <v>228</v>
       </c>
@@ -4649,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="120" t="s">
         <v>339</v>
       </c>
@@ -4663,7 +4661,7 @@
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="120" t="s">
         <v>230</v>
       </c>
@@ -4685,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="120" t="s">
         <v>232</v>
       </c>
@@ -4707,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="120" t="s">
         <v>339</v>
       </c>
@@ -4721,7 +4719,7 @@
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="120" t="s">
         <v>234</v>
       </c>
@@ -4743,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="120" t="s">
         <v>236</v>
       </c>
@@ -4765,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="120" t="s">
         <v>238</v>
       </c>
@@ -4787,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="120" t="s">
         <v>339</v>
       </c>
@@ -4801,7 +4799,7 @@
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="120" t="s">
         <v>240</v>
       </c>
@@ -4823,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="120" t="s">
         <v>242</v>
       </c>
@@ -4845,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="120" t="s">
         <v>244</v>
       </c>
@@ -4867,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="120" t="s">
         <v>339</v>
       </c>
@@ -4881,7 +4879,7 @@
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="120" t="s">
         <v>246</v>
       </c>
@@ -4903,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="120" t="s">
         <v>248</v>
       </c>
@@ -4925,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="120" t="s">
         <v>339</v>
       </c>
@@ -4939,7 +4937,7 @@
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="120" t="s">
         <v>258</v>
       </c>
@@ -4961,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="120" t="s">
         <v>336</v>
       </c>
@@ -4983,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="120" t="s">
         <v>339</v>
       </c>
@@ -4997,7 +4995,7 @@
       <c r="F117" s="118"/>
       <c r="G117" s="16"/>
     </row>
-    <row r="118" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="120" t="s">
         <v>340</v>
       </c>
@@ -5019,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="120" t="s">
         <v>341</v>
       </c>
@@ -5041,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="120" t="s">
         <v>342</v>
       </c>
@@ -5064,7 +5062,7 @@
       </c>
       <c r="I120" s="124"/>
     </row>
-    <row r="121" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="120" t="s">
         <v>343</v>
       </c>
@@ -5086,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="120" t="s">
         <v>344</v>
       </c>
@@ -5108,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="120" t="s">
         <v>345</v>
       </c>
@@ -5130,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="120" t="s">
         <v>345</v>
       </c>
@@ -5152,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="120" t="s">
         <v>346</v>
       </c>
@@ -5174,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="120" t="s">
         <v>347</v>
       </c>
@@ -5196,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="120" t="s">
         <v>348</v>
       </c>
@@ -5218,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="120" t="s">
         <v>349</v>
       </c>
@@ -5240,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="120" t="s">
         <v>350</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="120" t="s">
         <v>351</v>
       </c>
@@ -5284,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="120" t="s">
         <v>339</v>
       </c>
@@ -5298,7 +5296,7 @@
       <c r="F131" s="118"/>
       <c r="G131" s="16"/>
     </row>
-    <row r="132" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="120" t="s">
         <v>39</v>
       </c>
@@ -5320,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="120" t="s">
         <v>40</v>
       </c>
@@ -5342,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="120" t="s">
         <v>41</v>
       </c>
@@ -5364,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="120" t="s">
         <v>42</v>
       </c>
@@ -5386,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="120" t="s">
         <v>43</v>
       </c>
@@ -5408,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="120" t="s">
         <v>44</v>
       </c>
@@ -5430,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="120" t="s">
         <v>45</v>
       </c>
@@ -5452,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="120" t="s">
         <v>46</v>
       </c>
@@ -5474,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="120" t="s">
         <v>329</v>
       </c>
@@ -5496,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="120" t="s">
         <v>330</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="120" t="s">
         <v>331</v>
       </c>
@@ -5540,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="120" t="s">
         <v>339</v>
       </c>
@@ -5554,7 +5552,7 @@
       <c r="F143" s="118"/>
       <c r="G143" s="16"/>
     </row>
-    <row r="144" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="120" t="s">
         <v>360</v>
       </c>
@@ -5576,9 +5574,8 @@
         <v>0</v>
       </c>
       <c r="H144" s="124"/>
-      <c r="I144" s="125"/>
-    </row>
-    <row r="145" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="120" t="s">
         <v>361</v>
       </c>
@@ -5599,10 +5596,8 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H145" s="125"/>
-      <c r="I145" s="125"/>
-    </row>
-    <row r="146" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="120" t="s">
         <v>362</v>
       </c>
@@ -5624,9 +5619,8 @@
         <v>0</v>
       </c>
       <c r="H146" s="124"/>
-      <c r="I146" s="125"/>
-    </row>
-    <row r="147" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="120" t="s">
         <v>363</v>
       </c>
@@ -5647,10 +5641,8 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H147" s="125"/>
-      <c r="I147" s="125"/>
-    </row>
-    <row r="148" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="120" t="s">
         <v>364</v>
       </c>
@@ -5671,10 +5663,8 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H148" s="125"/>
-      <c r="I148" s="125"/>
-    </row>
-    <row r="149" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="120" t="s">
         <v>364</v>
       </c>
@@ -5696,9 +5686,8 @@
         <v>0</v>
       </c>
       <c r="H149" s="124"/>
-      <c r="I149" s="125"/>
-    </row>
-    <row r="150" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="120" t="s">
         <v>354</v>
       </c>
@@ -5719,10 +5708,8 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H150" s="125"/>
-      <c r="I150" s="125"/>
-    </row>
-    <row r="151" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="120" t="s">
         <v>354</v>
       </c>
@@ -5743,10 +5730,8 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H151" s="125"/>
-      <c r="I151" s="125"/>
-    </row>
-    <row r="152" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="120" t="s">
         <v>355</v>
       </c>
@@ -5757,7 +5742,7 @@
         <v>172</v>
       </c>
       <c r="D152" s="40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="16">
@@ -5767,10 +5752,8 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H152" s="125"/>
-      <c r="I152" s="125"/>
-    </row>
-    <row r="153" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="120" t="s">
         <v>356</v>
       </c>
@@ -5791,10 +5774,8 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H153" s="125"/>
-      <c r="I153" s="125"/>
-    </row>
-    <row r="154" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="120" t="s">
         <v>356</v>
       </c>
@@ -5816,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="120" t="s">
         <v>357</v>
       </c>
@@ -5838,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="120" t="s">
         <v>358</v>
       </c>
@@ -5860,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="120" t="s">
         <v>359</v>
       </c>
@@ -5882,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="120" t="s">
         <v>339</v>
       </c>
@@ -5890,13 +5871,13 @@
       <c r="C158" s="98"/>
       <c r="D158" s="42">
         <f>SUM(D144:D157)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="118"/>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="120" t="s">
         <v>371</v>
       </c>
@@ -5918,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="120" t="s">
         <v>372</v>
       </c>
@@ -5940,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="120" t="s">
         <v>373</v>
       </c>
@@ -5962,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="120" t="s">
         <v>365</v>
       </c>
@@ -5984,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="120" t="s">
         <v>366</v>
       </c>
@@ -6006,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="120" t="s">
         <v>367</v>
       </c>
@@ -6028,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="120" t="s">
         <v>368</v>
       </c>
@@ -6050,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="120" t="s">
         <v>369</v>
       </c>
@@ -6072,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="120" t="s">
         <v>370</v>
       </c>
@@ -6094,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="120" t="s">
         <v>374</v>
       </c>
@@ -6116,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="120" t="s">
         <v>375</v>
       </c>
@@ -6138,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="120" t="s">
         <v>339</v>
       </c>
@@ -6152,7 +6133,7 @@
       <c r="F170" s="119"/>
       <c r="G170" s="17"/>
     </row>
-    <row r="171" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="86"/>
       <c r="B171" s="69"/>
       <c r="C171" s="11"/>
@@ -6166,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="86"/>
       <c r="B172" s="69"/>
       <c r="C172" s="11"/>
@@ -6180,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="87"/>
       <c r="B173" s="25"/>
       <c r="C173" s="99"/>
@@ -6194,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="87"/>
       <c r="B174" s="25"/>
       <c r="C174" s="99"/>
@@ -6203,18 +6184,18 @@
       <c r="F174" s="22"/>
       <c r="G174" s="39"/>
     </row>
-    <row r="175" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="87"/>
-      <c r="B175" s="126" t="s">
+      <c r="B175" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="C175" s="126"/>
+      <c r="C175" s="125"/>
       <c r="D175" s="24"/>
       <c r="E175" s="24"/>
       <c r="F175" s="24"/>
       <c r="G175" s="10"/>
     </row>
-    <row r="176" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="87"/>
       <c r="B176" s="110" t="s">
         <v>0</v>
@@ -6227,7 +6208,7 @@
       <c r="F176" s="24"/>
       <c r="G176" s="10"/>
     </row>
-    <row r="177" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="87"/>
       <c r="B177" s="111"/>
       <c r="C177" s="110" t="s">
@@ -6238,7 +6219,7 @@
       <c r="F177" s="24"/>
       <c r="G177" s="7"/>
     </row>
-    <row r="178" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="87"/>
       <c r="B178" s="38">
         <v>1</v>
@@ -6251,7 +6232,7 @@
       <c r="F178" s="25"/>
       <c r="G178" s="8"/>
     </row>
-    <row r="179" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="87"/>
       <c r="B179" s="111">
         <v>1</v>
@@ -6264,7 +6245,7 @@
       <c r="F179" s="33"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="87"/>
       <c r="B180" s="38">
         <v>1</v>
@@ -6277,7 +6258,7 @@
       <c r="F180" s="33"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="87"/>
       <c r="B181" s="38">
         <v>1</v>
@@ -6290,7 +6271,7 @@
       <c r="F181" s="33"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="87"/>
       <c r="B182" s="38">
         <v>1</v>
@@ -6303,7 +6284,7 @@
       <c r="F182" s="33"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="87"/>
       <c r="B183" s="38">
         <v>1</v>
@@ -6316,7 +6297,7 @@
       <c r="F183" s="33"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="87"/>
       <c r="B184" s="38">
         <v>1</v>
@@ -6329,7 +6310,7 @@
       <c r="F184" s="33"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="87"/>
       <c r="B185" s="38">
         <v>1</v>
@@ -6342,7 +6323,7 @@
       <c r="F185" s="33"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="87"/>
       <c r="B186" s="38">
         <v>1</v>
@@ -6355,7 +6336,7 @@
       <c r="F186" s="33"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="87"/>
       <c r="B187" s="112">
         <v>2</v>
@@ -6368,7 +6349,7 @@
       <c r="F187" s="33"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="87"/>
       <c r="B188" s="38">
         <v>2</v>
@@ -6381,7 +6362,7 @@
       <c r="F188" s="33"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="87"/>
       <c r="B189" s="38">
         <v>1</v>
@@ -6394,7 +6375,7 @@
       <c r="F189" s="33"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="87"/>
       <c r="B190" s="38">
         <v>2</v>
@@ -6407,7 +6388,7 @@
       <c r="F190" s="33"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="87"/>
       <c r="B191" s="38">
         <v>2</v>
@@ -6420,7 +6401,7 @@
       <c r="F191" s="33"/>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="87"/>
       <c r="B192" s="38">
         <v>2</v>
@@ -6433,7 +6414,7 @@
       <c r="F192" s="33"/>
       <c r="G192" s="8"/>
     </row>
-    <row r="193" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="87"/>
       <c r="B193" s="38">
         <v>2</v>
@@ -6446,7 +6427,7 @@
       <c r="F193" s="24"/>
       <c r="G193" s="8"/>
     </row>
-    <row r="194" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="87"/>
       <c r="B194" s="38">
         <v>2</v>
@@ -6459,7 +6440,7 @@
       <c r="F194" s="33"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="87"/>
       <c r="B195" s="38">
         <v>1</v>
@@ -6472,7 +6453,7 @@
       <c r="F195" s="33"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="87"/>
       <c r="B196" s="38"/>
       <c r="C196" s="83" t="s">
@@ -6483,7 +6464,7 @@
       <c r="F196" s="33"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="87"/>
       <c r="B197" s="41">
         <f>SUM(B178:B196)</f>
@@ -6495,7 +6476,7 @@
       <c r="F197" s="33"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="87"/>
       <c r="B198" s="113"/>
       <c r="C198" s="1"/>
@@ -6504,7 +6485,7 @@
       <c r="F198" s="33"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="87"/>
       <c r="B199" s="41"/>
       <c r="C199" s="41" t="s">
@@ -6515,7 +6496,7 @@
       <c r="F199" s="33"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="87"/>
       <c r="B200" s="111">
         <v>1</v>
@@ -6528,7 +6509,7 @@
       <c r="F200" s="33"/>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="87"/>
       <c r="B201" s="38">
         <v>1</v>
@@ -6541,7 +6522,7 @@
       <c r="F201" s="33"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="87"/>
       <c r="B202" s="38">
         <v>1</v>
@@ -6554,7 +6535,7 @@
       <c r="F202" s="33"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="87"/>
       <c r="B203" s="38">
         <v>1</v>
@@ -6567,7 +6548,7 @@
       <c r="F203" s="33"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="87"/>
       <c r="B204" s="38">
         <v>1</v>
@@ -6580,7 +6561,7 @@
       <c r="F204" s="33"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="87"/>
       <c r="B205" s="38">
         <v>1</v>
@@ -6593,7 +6574,7 @@
       <c r="F205" s="33"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="87"/>
       <c r="B206" s="38">
         <v>1</v>
@@ -6606,7 +6587,7 @@
       <c r="F206" s="33"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="87"/>
       <c r="B207" s="38">
         <v>1</v>
@@ -6619,7 +6600,7 @@
       <c r="F207" s="33"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="87"/>
       <c r="B208" s="38">
         <v>1</v>
@@ -6632,7 +6613,7 @@
       <c r="F208" s="33"/>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="87"/>
       <c r="B209" s="111">
         <v>1</v>
@@ -6645,7 +6626,7 @@
       <c r="F209" s="34"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="87"/>
       <c r="B210" s="111">
         <v>1</v>
@@ -6658,7 +6639,7 @@
       <c r="F210" s="35"/>
       <c r="G210" s="6"/>
     </row>
-    <row r="211" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="87"/>
       <c r="B211" s="38">
         <v>1</v>
@@ -6671,7 +6652,7 @@
       <c r="F211" s="35"/>
       <c r="G211" s="6"/>
     </row>
-    <row r="212" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="87"/>
       <c r="B212" s="38">
         <v>1</v>
@@ -6684,7 +6665,7 @@
       <c r="F212" s="35"/>
       <c r="G212" s="6"/>
     </row>
-    <row r="213" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="87"/>
       <c r="B213" s="110">
         <v>12</v>
@@ -6695,7 +6676,7 @@
       <c r="F213" s="26"/>
       <c r="G213" s="6"/>
     </row>
-    <row r="214" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="87"/>
       <c r="B214" s="110"/>
       <c r="C214" s="100"/>
@@ -6704,7 +6685,7 @@
       <c r="F214" s="26"/>
       <c r="G214" s="6"/>
     </row>
-    <row r="215" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="87"/>
       <c r="B215" s="7"/>
       <c r="C215" s="10"/>
@@ -6713,7 +6694,7 @@
       <c r="F215" s="26"/>
       <c r="G215" s="6"/>
     </row>
-    <row r="216" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="87"/>
       <c r="B216" s="38">
         <v>1</v>
@@ -6726,7 +6707,7 @@
       <c r="F216" s="26"/>
       <c r="G216" s="6"/>
     </row>
-    <row r="217" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="87"/>
       <c r="B217" s="38">
         <v>3</v>
@@ -6739,7 +6720,7 @@
       <c r="F217" s="26"/>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="87"/>
       <c r="B218" s="38">
         <v>1</v>
@@ -6752,7 +6733,7 @@
       <c r="F218" s="26"/>
       <c r="G218" s="6"/>
     </row>
-    <row r="219" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="87"/>
       <c r="B219" s="38">
         <v>1</v>
@@ -6765,7 +6746,7 @@
       <c r="F219" s="26"/>
       <c r="G219" s="6"/>
     </row>
-    <row r="220" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="87"/>
       <c r="B220" s="38">
         <v>2</v>
@@ -6778,7 +6759,7 @@
       <c r="F220" s="26"/>
       <c r="G220" s="6"/>
     </row>
-    <row r="221" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="87"/>
       <c r="B221" s="41">
         <f>SUM(B216:B220)</f>
@@ -6790,7 +6771,7 @@
       <c r="F221" s="26"/>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="87"/>
       <c r="B222" s="8"/>
       <c r="C222" s="10"/>
@@ -6799,7 +6780,7 @@
       <c r="F222" s="26"/>
       <c r="G222" s="6"/>
     </row>
-    <row r="223" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="87"/>
       <c r="B223" s="8"/>
       <c r="C223" s="10"/>
@@ -6808,7 +6789,7 @@
       <c r="F223" s="26"/>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="1:7" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="33"/>
       <c r="B224" s="25"/>
       <c r="C224" s="33"/>
@@ -6816,7 +6797,7 @@
       <c r="E224" s="33"/>
       <c r="F224" s="33"/>
     </row>
-    <row r="225" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="33"/>
       <c r="B225" s="73" t="s">
         <v>275</v>
@@ -6828,7 +6809,7 @@
       <c r="E225" s="33"/>
       <c r="F225" s="33"/>
     </row>
-    <row r="226" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="33"/>
       <c r="B226" s="73"/>
       <c r="C226" s="72" t="s">
@@ -6838,7 +6819,7 @@
       <c r="E226" s="33"/>
       <c r="F226" s="33"/>
     </row>
-    <row r="227" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="33"/>
       <c r="B227" s="73"/>
       <c r="C227" s="72" t="s">
@@ -6848,7 +6829,7 @@
       <c r="E227" s="33"/>
       <c r="F227" s="33"/>
     </row>
-    <row r="228" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="33"/>
       <c r="B228" s="73"/>
       <c r="C228" s="72" t="s">
@@ -6858,7 +6839,7 @@
       <c r="E228" s="33"/>
       <c r="F228" s="33"/>
     </row>
-    <row r="229" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="33"/>
       <c r="B229" s="73"/>
       <c r="C229" s="72" t="s">
@@ -6868,7 +6849,7 @@
       <c r="E229" s="33"/>
       <c r="F229" s="33"/>
     </row>
-    <row r="230" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="33"/>
       <c r="B230" s="73"/>
       <c r="C230" s="72"/>
@@ -6876,7 +6857,7 @@
       <c r="E230" s="33"/>
       <c r="F230" s="33"/>
     </row>
-    <row r="231" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="33"/>
       <c r="B231" s="74" t="s">
         <v>223</v>
@@ -6888,7 +6869,7 @@
       <c r="E231" s="33"/>
       <c r="F231" s="33"/>
     </row>
-    <row r="232" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="33"/>
       <c r="B232" s="74"/>
       <c r="C232" s="102" t="s">
@@ -6898,7 +6879,7 @@
       <c r="E232" s="33"/>
       <c r="F232" s="33"/>
     </row>
-    <row r="233" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="33"/>
       <c r="B233" s="74"/>
       <c r="C233" s="102" t="s">
@@ -6908,7 +6889,7 @@
       <c r="E233" s="33"/>
       <c r="F233" s="33"/>
     </row>
-    <row r="234" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="33"/>
       <c r="B234" s="75"/>
       <c r="C234" s="103"/>
@@ -6916,7 +6897,7 @@
       <c r="E234" s="33"/>
       <c r="F234" s="33"/>
     </row>
-    <row r="235" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="33"/>
       <c r="B235" s="75"/>
       <c r="C235" s="103"/>
@@ -6924,7 +6905,7 @@
       <c r="E235" s="33"/>
       <c r="F235" s="33"/>
     </row>
-    <row r="236" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="33"/>
       <c r="B236" s="75"/>
       <c r="C236" s="103"/>
@@ -6932,21 +6913,21 @@
       <c r="E236" s="33"/>
       <c r="F236" s="33"/>
     </row>
-    <row r="237" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="33"/>
       <c r="B237" s="77"/>
       <c r="D237" s="33"/>
       <c r="E237" s="33"/>
       <c r="F237" s="33"/>
     </row>
-    <row r="238" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="33"/>
       <c r="B238" s="77"/>
       <c r="D238" s="33"/>
       <c r="E238" s="33"/>
       <c r="F238" s="33"/>
     </row>
-    <row r="239" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="33"/>
       <c r="B239" s="77" t="s">
         <v>376</v>
@@ -6956,7 +6937,7 @@
       <c r="E239" s="33"/>
       <c r="F239" s="33"/>
     </row>
-    <row r="240" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="33"/>
       <c r="B240" s="94"/>
       <c r="C240"/>
@@ -6964,7 +6945,7 @@
       <c r="E240" s="33"/>
       <c r="F240" s="33"/>
     </row>
-    <row r="241" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="33"/>
       <c r="B241" s="94"/>
       <c r="C241"/>
@@ -6972,7 +6953,7 @@
       <c r="E241" s="33"/>
       <c r="F241" s="33"/>
     </row>
-    <row r="242" spans="1:6" s="45" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" s="45" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="33"/>
       <c r="B242" s="77" t="s">
         <v>377</v>
@@ -6982,7 +6963,7 @@
       <c r="E242" s="33"/>
       <c r="F242" s="33"/>
     </row>
-    <row r="243" spans="1:6" s="45" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" s="45" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="33"/>
       <c r="B243" s="94"/>
       <c r="C243"/>
@@ -6990,7 +6971,7 @@
       <c r="E243" s="33"/>
       <c r="F243" s="33"/>
     </row>
-    <row r="244" spans="1:6" s="45" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" s="45" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="33"/>
       <c r="B244" s="94"/>
       <c r="C244"/>
@@ -6998,7 +6979,7 @@
       <c r="E244" s="33"/>
       <c r="F244" s="33"/>
     </row>
-    <row r="245" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="33"/>
       <c r="B245" s="94"/>
       <c r="C245"/>
@@ -7006,7 +6987,7 @@
       <c r="E245" s="33"/>
       <c r="F245" s="33"/>
     </row>
-    <row r="246" spans="1:6" s="11" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="33"/>
       <c r="B246" s="77" t="s">
         <v>282</v>
@@ -7016,7 +6997,7 @@
       <c r="E246" s="33"/>
       <c r="F246" s="33"/>
     </row>
-    <row r="247" spans="1:6" s="13" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="36"/>
       <c r="B247" s="94"/>
       <c r="C247"/>
@@ -7024,7 +7005,7 @@
       <c r="E247" s="36"/>
       <c r="F247" s="36"/>
     </row>
-    <row r="248" spans="1:6" s="13" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="33"/>
       <c r="B248" s="94"/>
       <c r="C248"/>
@@ -7032,7 +7013,7 @@
       <c r="E248" s="36"/>
       <c r="F248" s="36"/>
     </row>
-    <row r="249" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="87"/>
       <c r="B249" s="77" t="s">
         <v>378</v>
@@ -7042,7 +7023,7 @@
       <c r="E249" s="23"/>
       <c r="F249" s="23"/>
     </row>
-    <row r="250" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="87"/>
       <c r="B250" s="94"/>
       <c r="C250"/>
@@ -7050,7 +7031,7 @@
       <c r="E250" s="23"/>
       <c r="F250" s="23"/>
     </row>
-    <row r="251" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="87"/>
       <c r="B251" s="94"/>
       <c r="C251"/>
@@ -7058,7 +7039,7 @@
       <c r="E251" s="23"/>
       <c r="F251" s="23"/>
     </row>
-    <row r="252" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="87"/>
       <c r="B252" s="77" t="s">
         <v>107</v>
@@ -7078,7 +7059,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="EQUIVOCACION" error="Debe seleccionar un registro de la lista" promptTitle="Clientes Ortomax" prompt="Lista de Clientes de Ortomax" sqref="C9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="EQUIVOCACION" error="Debe seleccionar un registro de la lista" promptTitle="Clientes Ortomax" prompt="Lista de Clientes de Ortomax" sqref="C9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7088,14 +7069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC88-EQUIPO RADIO DISTAL  AV TITANIO #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC88-EQUIPO RADIO DISTAL  AV TITANIO #1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149080EA-BE93-432E-8C2A-1730898AF337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730EDBC4-184D-460A-86F6-3D9A3EAEDF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="360" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="5" r:id="rId1"/>
@@ -1288,12 +1288,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1649,16 +1649,16 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1672,7 +1672,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1696,10 +1696,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -1714,7 +1714,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1763,7 +1763,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1866,7 +1866,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment readingOrder="1"/>
       <protection locked="0"/>
@@ -1951,7 +1951,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1996,22 +1996,22 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2117,9 +2117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2157,7 +2157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2263,7 +2263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2405,7 +2405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2418,8 +2418,8 @@
   </sheetPr>
   <dimension ref="A2:I252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="68" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E255"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A134" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="68" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
